--- a/examples/test-js/dink-content/main-stats.xlsx
+++ b/examples/test-js/dink-content/main-stats.xlsx
@@ -40,6 +40,30 @@
     <x:t>Origin</x:t>
   </x:si>
   <x:si>
+    <x:t>LauraChat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScene</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:75</x:t>
+  </x:si>
+  <x:si>
     <x:t>Scene1</x:t>
   </x:si>
   <x:si>
@@ -49,30 +73,6 @@
     <x:t>scene1.ink:1</x:t>
   </x:si>
   <x:si>
-    <x:t>LauraChat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScene</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:75</x:t>
-  </x:si>
-  <x:si>
     <x:t>Non-Dink</x:t>
   </x:si>
   <x:si>
@@ -130,12 +130,291 @@
     <x:t>Text</x:t>
   </x:si>
   <x:si>
+    <x:t>main_Main_S72S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pick a thing to do...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Main_QU2R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trigger a Bark for Fred</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Main_X20S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trigger some not-Dink</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Main_OQ5O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talk to Laura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Main_NEAB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Some Comment Tests</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Main_AD94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test Scene1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Main_768S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>You go to a completely separate file, scene1.ink!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_NotDink_4ZS7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a test piece of Ink which doesn't have the Dink tag at the top.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_NotDink_D6LY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>So it works like normal Ink.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_CO2Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hi, Laura here. What's up?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_HUAV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>How are things, Laura?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_5T8A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oh, not too bad, thanks!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_RWJJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What's the weather like?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_J0MK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It's pretty good today.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_CIMX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raining as always.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_L3K7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dull, dull grey.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_LauraChat_Hub_MKGT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(Leave.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_16U4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We're testing some comments here.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_G33S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It'll only make sense if you export a recording script or the Dink structure.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_FF1T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is another line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_BQ1E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a loud line!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_IQIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glad that's over with!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_TestScene_MP0B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_O037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hey!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_UWZ2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stop poking me!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_1ZG8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Why do you keep doing that?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_JFG1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ignoring you. Gonna grab a beer.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_4444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What? I'm busy - Jim's here.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_X291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I'm happy for you to poke him, really.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_L2SX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stop it!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main_Barks_N07F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>main.ink:90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wow this is annoying!</x:t>
+  </x:si>
+  <x:si>
     <x:t>scene1_Scene1_Part1_S494</x:t>
   </x:si>
   <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
     <x:t>scene1.ink:7</x:t>
   </x:si>
   <x:si>
@@ -265,9 +544,6 @@
     <x:t>scene1.ink:49</x:t>
   </x:si>
   <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
     <x:t>scene1_Scene1_Right_WM69</x:t>
   </x:si>
   <x:si>
@@ -314,282 +590,6 @@
   </x:si>
   <x:si>
     <x:t>scene1.ink:66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Main_S72S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pick a thing to do...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Main_QU2R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trigger a Bark for Fred</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Main_X20S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trigger some not-Dink</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Main_OQ5O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talk to Laura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Main_NEAB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Some Comment Tests</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Main_AD94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test Scene1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Main_768S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>You go to a completely separate file, scene1.ink!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_NotDink_4ZS7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a test piece of Ink which doesn't have the Dink tag at the top.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_NotDink_D6LY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>So it works like normal Ink.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_CO2Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hi, Laura here. What's up?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_HUAV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>How are things, Laura?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_5T8A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oh, not too bad, thanks!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_RWJJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>What's the weather like?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_J0MK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>It's pretty good today.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_CIMX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Raining as always.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_L3K7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dull, dull grey.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_LauraChat_Hub_MKGT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(Leave.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_16U4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We're testing some comments here.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_G33S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>It'll only make sense if you export a recording script or the Dink structure.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_FF1T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is another line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_BQ1E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a loud line!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_IQIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glad that's over with!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_TestScene_MP0B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_O037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hey!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_UWZ2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stop poking me!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_1ZG8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Why do you keep doing that?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_JFG1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ignoring you. Gonna grab a beer.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_4444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>What? I'm busy - Jim's here.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_X291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I'm happy for you to poke him, really.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_L2SX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stop it!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main_Barks_N07F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>main.ink:90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wow this is annoying!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -880,16 +880,16 @@
       <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -1302,10 +1302,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="1">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2" s="9">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2" s="10" t="s">
         <x:v>8</x:v>
@@ -1316,10 +1316,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="1">
         <x:v>5</x:v>
@@ -1328,24 +1328,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F3" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A4" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="8" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B4" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="C4" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="1">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="9">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="10" t="s">
         <x:v>13</x:v>
@@ -1362,10 +1362,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="1">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E5" s="9">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="10" t="s">
         <x:v>16</x:v>
@@ -1623,13 +1623,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C2" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="10" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="E2" s="10" t="s">
-        <x:v>27</x:v>
+      <x:c r="E2" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F2" s="10" t="s">
         <x:v>39</x:v>
@@ -1643,13 +1643,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C3" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="10" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E3" s="10" t="s">
-        <x:v>27</x:v>
+      <x:c r="E3" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="10" t="s">
         <x:v>42</x:v>
@@ -1662,13 +1662,13 @@
       <x:c r="B4" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C4" s="24" t="s">
+      <x:c r="C4" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="E4" s="25" t="s">
+      <x:c r="E4" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F4" s="10" t="s">
@@ -1682,13 +1682,13 @@
       <x:c r="B5" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C5" s="24" t="s">
+      <x:c r="C5" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E5" s="25" t="s">
+      <x:c r="E5" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="10" t="s">
@@ -1703,13 +1703,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="E6" s="10" t="s">
-        <x:v>31</x:v>
+      <x:c r="E6" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="10" t="s">
         <x:v>51</x:v>
@@ -1722,13 +1722,13 @@
       <x:c r="B7" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C7" s="24" t="s">
+      <x:c r="C7" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E7" s="25" t="s">
+      <x:c r="E7" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="10" t="s">
@@ -1743,13 +1743,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C8" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="10" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="E8" s="10" t="s">
-        <x:v>32</x:v>
+      <x:c r="E8" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="10" t="s">
         <x:v>57</x:v>
@@ -1762,13 +1762,13 @@
       <x:c r="B9" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C9" s="24" t="s">
+      <x:c r="C9" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="10" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="E9" s="25" t="s">
+      <x:c r="E9" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="10" t="s">
@@ -1783,13 +1783,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D10" s="10" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="E10" s="10" t="s">
-        <x:v>27</x:v>
+      <x:c r="E10" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F10" s="10" t="s">
         <x:v>63</x:v>
@@ -1802,14 +1802,14 @@
       <x:c r="B11" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C11" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C11" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D11" s="10" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E11" s="25" t="s">
-        <x:v>18</x:v>
+      <x:c r="E11" s="10" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F11" s="10" t="s">
         <x:v>66</x:v>
@@ -1823,13 +1823,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C12" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="E12" s="10" t="s">
-        <x:v>27</x:v>
+      <x:c r="E12" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F12" s="10" t="s">
         <x:v>69</x:v>
@@ -1842,14 +1842,14 @@
       <x:c r="B13" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C13" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D13" s="10" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="E13" s="25" t="s">
-        <x:v>18</x:v>
+      <x:c r="E13" s="10" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F13" s="10" t="s">
         <x:v>72</x:v>
@@ -1863,13 +1863,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C14" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D14" s="10" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="E14" s="10" t="s">
-        <x:v>27</x:v>
+      <x:c r="E14" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F14" s="10" t="s">
         <x:v>75</x:v>
@@ -1882,14 +1882,14 @@
       <x:c r="B15" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C15" s="23" t="s">
+      <x:c r="C15" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D15" s="10" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="E15" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F15" s="10" t="s">
         <x:v>78</x:v>
@@ -1902,14 +1902,14 @@
       <x:c r="B16" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C16" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C16" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D16" s="10" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="E16" s="25" t="s">
-        <x:v>18</x:v>
+      <x:c r="E16" s="10" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F16" s="10" t="s">
         <x:v>81</x:v>
@@ -1922,14 +1922,14 @@
       <x:c r="B17" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C17" s="23" t="s">
+      <x:c r="C17" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D17" s="10" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="E17" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F17" s="10" t="s">
         <x:v>84</x:v>
@@ -1942,717 +1942,717 @@
       <x:c r="B18" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C18" s="24" t="s">
+      <x:c r="C18" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D18" s="10" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="E18" s="25" t="s">
+      <x:c r="E18" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F18" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A19" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B19" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C19" s="23" t="s">
+      <x:c r="C19" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D19" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E19" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F19" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A20" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B20" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C20" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C20" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D20" s="10" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E20" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E20" s="10" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F20" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A21" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B21" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C21" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C21" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D21" s="10" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E21" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E21" s="10" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F21" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A22" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B22" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C22" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C22" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D22" s="10" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E22" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E22" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F22" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A23" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B23" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C23" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C23" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D23" s="10" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E23" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E23" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F23" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A24" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B24" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C24" s="24" t="s">
+      <x:c r="C24" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D24" s="10" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E24" s="25" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E24" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F24" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A25" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B25" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C25" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C25" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D25" s="10" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E25" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E25" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F25" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A26" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B26" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C26" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C26" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D26" s="10" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E26" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E26" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F26" s="10" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A27" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B27" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C27" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C27" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D27" s="10" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E27" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E27" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F27" s="10" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A28" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B28" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C28" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C28" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D28" s="10" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E28" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E28" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F28" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A29" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B29" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C29" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C29" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D29" s="10" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E29" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E29" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F29" s="10" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A30" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B30" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C30" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C30" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D30" s="10" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E30" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E30" s="10" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F30" s="10" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A31" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B31" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C31" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D31" s="10" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E31" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E31" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F31" s="10" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A32" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B32" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C32" s="23" t="s">
+      <x:c r="C32" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D32" s="10" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E32" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F32" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A33" s="7" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B33" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C33" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C33" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D33" s="10" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E33" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E33" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F33" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A34" s="7" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B34" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C34" s="23" t="s">
+      <x:c r="C34" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D34" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E34" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F34" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A35" s="7" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B35" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C35" s="24" t="s">
+      <x:c r="C35" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D35" s="10" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="E35" s="25" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E35" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F35" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A36" s="7" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C36" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D36" s="10" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E36" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E36" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F36" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A37" s="7" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B37" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C37" s="23" t="s">
+      <x:c r="C37" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D37" s="10" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E37" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F37" s="10" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A38" s="7" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B38" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C38" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D38" s="10" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E38" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E38" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F38" s="10" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A39" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B39" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C39" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C39" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D39" s="10" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="E39" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E39" s="10" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F39" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A40" s="7" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B40" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C40" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D40" s="10" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="E40" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E40" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F40" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A41" s="7" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B41" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C41" s="23" t="s">
+      <x:c r="C41" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D41" s="10" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E41" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F41" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A42" s="7" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B42" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C42" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D42" s="10" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="E42" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E42" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F42" s="10" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A43" s="7" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B43" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C43" s="23" t="s">
+      <x:c r="C43" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D43" s="10" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E43" s="10" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F43" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A44" s="7" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B44" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C44" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D44" s="10" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="E44" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E44" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F44" s="10" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A45" s="7" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B45" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C45" s="24" t="s">
-        <x:v>18</x:v>
+      <x:c r="C45" s="25" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D45" s="10" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="E45" s="25" t="s">
-        <x:v>18</x:v>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E45" s="10" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F45" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A46" s="7" t="s">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B46" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C46" s="23" t="s">
+      <x:c r="C46" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D46" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E46" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F46" s="10" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A47" s="7" t="s">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B47" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C47" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D47" s="10" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="E47" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E47" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F47" s="10" t="s">
-        <x:v>171</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A48" s="7" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B48" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C48" s="23" t="s">
+      <x:c r="C48" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D48" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E48" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F48" s="10" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A49" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B49" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C49" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D49" s="10" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="E49" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E49" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F49" s="10" t="s">
-        <x:v>177</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A50" s="7" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B50" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C50" s="23" t="s">
+      <x:c r="C50" s="25" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D50" s="10" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E50" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F50" s="10" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A51" s="7" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B51" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C51" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D51" s="10" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="E51" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="E51" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F51" s="10" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A52" s="7" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B52" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C52" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D52" s="10" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="E52" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="E52" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F52" s="10" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:6" ht="13.5" customHeight="1">
       <x:c r="A53" s="7" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B53" s="22" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C53" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D53" s="10" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="E53" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="E53" s="24" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F53" s="10" t="s">
-        <x:v>189</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
